--- a/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400365</t>
   </si>
   <si>
-    <t>F. James Sensenbrenner, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee will be in order. Without objection, the Chair will be authorized to declare recesses of the Subcommittee during votes in the House.    Because we're supposed to have votes in about 30 minutes, the Chair will forego his opening statement. We'll ask the other Members not to make opening statements so we can get to the witnesses, because Representative Jackson Lee has got a hard departure time at 11:30. And I think after the first votes we won't be able to get back until that.</t>
   </si>
   <si>
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman.</t>
   </si>
   <si>
@@ -91,36 +85,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hess. Thank you. Good morning, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of Subcommittee. Thank you for the opportunity to provide an update today on our efforts relating to rapid DNA and for your continued support of the men and women of the FBI.    Over the last three decades we've been developing our Combined DNA Index System, or CODIS program, in order to better assist Federal, state, local, and international forensic laboratories. As new DNA technologies have emerged, we have been vigilant in demanding they provide the quality and integrity expected of a nationwide law enforcement database, and must be implemented pursuant to the FBI's Quality Assurance Standards in accordance with the Federal DNA Identification Act of 1994.    One of the underlying concepts of CODIS was to create a database of the DNA profiles of convicted offenders and use it to identify suspects for crimes in which there are no suspects. But this tool, which was initially expected to benefit the investigation of sexual assault cases, has proven to have broader applications. States observed this firsthand and sought to expand coverage of their databases beyond convicted sexual offenders; first, to individuals convicted of other violent felonies, then to all felony offenders, and now to persons arrested for sexual offenses, or in many states persons arrested for any felony offense.    The FBI Laboratory works closely with the DNA and CODIS communities, as well as other stakeholders, such as laboratory accrediting bodies, law enforcement, defense attorneys, and prosecutors, to evaluate new technologies and procedures. Any efforts to enhance CODIS involve significant consultation with the affected stakeholders, software development, testing, evaluation, implementation planning, and user training.    Today CODIS is installed in approximately 200 forensic DNA laboratories nationwide. The FBI provides the CODIS software to laboratories which are accredited, which follow the FBI's Quality Assurance Standards, that are audited annually, and that agree to comply with the Federal DNA Act for participation in the National DNA Index System, or NDIS.    To date, CODIS has generated over 285,000 investigative leads for law enforcement. All 50 States, Puerto Rico, the U.S. Army's Criminal Investigation Laboratory, and the FBI contribute DNA records to and participate in NDIS, which contains almost 14 million offender or arrestee DNA records and over 630,000 forensic or crime scene DNA records.    The FBI uses the term ``Rapid DNA analysis or technology'' to describe the fully automated, hands-free process of developing a CODIS Core Short Tandem Repeater, or STR, profile from a reference sample buccal swab. The process consists of automated extraction, amplification, separation, detection, and allele calling without human intervention. Our objective is to generate a CODIS-compatible DNA profile and to search these profiles within 2 hours against unsolved crime profiles while an arrestee is in police custody.    Rapid DNA technology has been designed for use within and outside the forensic DNA laboratory, as the instruments are self-contained machines which require no human intervention beyond the loading of the DNA samples and analysis cartridges.    With legislative authority, the FBI envisions Rapid DNA integration occurring in two phase. Phase one involves the booking station CODIS enrollment and searching of Rapid DNA profiles, which will eliminate the weeks to months it currently takes for arrestee samples to be mailed, received, inventoried, and analyzed for registration in the CODIS system. Phase two is the hit notification to booking stations and investigative agencies, which is expected to conserve valuable investigative resources and identify perpetrators before they are released back into their communities at the completion of the normal booking process.    Since 2008 we've partnered with the Departments of Defense and Homeland Security in the development of point-of-collection DNA analysis for the production of CODIS DNA profiles within a 2-hour period. In addition, the Scientific Working Group on DNA Analysis Methods empaneled a Rapid DNA Committee to evaluate whether additional quality measures were needed for records produced by Rapid DNA instruments. Based on their recommendations, the FBI issued an addendum to our Quality Assurance Standards to provide a foundation for the implementation of Rapid DNA within accredited forensic DNA laboratories.    The Federal DNA Act currently requires that DNA records maintained at NDIS be generated by accredited laboratories in compliance with the FBI's Quality Assurance Standards. But Rapid DNA technology has been designed for use by law enforcement agencies at the point of booking. Thus, statutory authorization for the use of FBI-approved Rapid DNA instruments by criminal justice agencies would be needed before the DNA records generated at police booking stations can be searched at     In addition to the legislative, validation, testing, evaluation, standards, and software issues, we must address issues relating to NDIS approval and certification of the instruments, as well as training of law enforcement personnel. These issues must be resolved prior to implementation so this new technology is used in a manner which maintains the quality, integrity, and sterling reputation of our database.    In conclusion, CODIS has demonstrated its value as an investigative tool for 25 years, and we are committed to maintaining its effectiveness. The FBI is also committed to identifying new technologies which could enhance the CODIS program, and we are pursuing Rapid DNA technology because we believe the efficiencies obtained from the real-time analysis of an arrestee's DNA sample has tremendous potential to improve public safety and focus law enforcement investigative resources.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Ms. Wolf.</t>
   </si>
   <si>
-    <t>Wolf</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wolf. Good morning, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Committee. My name is Jody Wolf, and I am the president of the American Society of Crime Laboratory Directors. On behalf of the 600 laboratory directors represented by ASCLD and over 15,000 crime laboratory practitioners represented by the Consortium of Forensic Science Organizations, I would like to thank you for the opportunity to discuss the topic of Rapid DNA technology and provide comments on House Resolution 320, the Rapid DNA Act of 2015.    The introduction of Rapid DNA technology has been an exciting one for the forensic science community. Several of our members helped with the initial technology development, and several more are currently participating in pilot programs to evaluate how best to implement this novel technology within the criminal justice system.    Rapid DNA is designed to deliver a DNA profile from samples such as known reference standards within a few hours, and is most commonly associated with the placement in law enforcement booking stations for the analysis of arrestee samples and entry into CODIS. The potential of this technology is promising, and both ASCLD and CFSO support the continued development of this novel application.    As I stated earlier, several of our members are currently participating in pilot programs and validation studies to develop best practices for the widespread deployment of these systems. Overviews of these programs and studies are provided in the written testimony offered to this Committee. As policymakers anticipate the implementation of this technology, it is critical the following issues are considered.    First, rigorous validations performed by crime laboratory scientists and researchers are critical to demonstrating the efficacy of this technology and not marketing materials. Currently, these devices are best suited for use with single-source, high-quantity biological samples such as reference standards of blood or saliva from known individuals, thus limiting its usefulness for complex crime scene samples of more than one person.    These instruments also currently can't analyze trace amounts of DNA. Consequently, these instruments are not designed for the routine testing of evidence types found in rape kits and will not help with the reduction of rape kit backlogs.    Secondly, this technology must be compliant with current industry standards and guidelines as provided by the FBI and the Scientific Working Group on DNA Analysis Methods, thus ensuring its operability with the CODIS database. SWGDAM and the FBI Quality Assurance Standards for Forensic DNA Testing Laboratories have provided best practices and standards for almost 20 years. ASCLD looks to these groups for guidance with Rapid DNA technologies, and we encourage vendors to seek full compliance with these standards or any new standards or guidelines developed by this group.    Third, ASCLD recommends that a careful cost-benefit analysis be performed prior to its widespread implementation. The purchase price for most Rapid DNA devices currently exceed $200,000, and the estimated per sample cost is $250. By comparison, FORESIGHT, a national study of crime laboratory operational costs, led by the West Virginia University, reported the median cost is less than $85 per sample using traditional laboratory methods for the DNA analysis of a database or known reference standard.    Clearly, the current costs of traditional DNA databasing is significantly less than using the Rapid DNA technology. As a result, funding levels for existing grant programs aimed at increasing analytical capacity for crime laboratories and reducing backlogs will need to be increased to allow crime laboratories and their stakeholders the opportunity to best meet the needs of their jurisdictions for DNA analysis.    Finally, and perhaps most importantly for crime laboratories and practitioners, is the technology transfer from the vendors to operational facilities. While the FBIis currently working on supporting the IT infrastructure necessary for its implementation in booking stations, it is important that other measures are also taken to validate this technology in the community.    ASCLD has been at the forefront of these activities and presented three Rapid DNA webinars addressing these topics during the past year, including Rapid DNA presentations during its annual symposiums, and has charged its Forensic Research Committee with developing guidance and best practices for its membership.    ASCLD and CFSO support Rapid DNA legislation, with revision, in order to ensure the existing integrity and security of the National DNA Database system is maintained, to authorize the FBI as the Federal law enforcement agency tasked with oversight of CODIS and establishing forensic DNA Quality Assurance Standards, and include a definition of Rapid DNA analysis and instruments utilizing NDIS-approved analytical platforms, chemistries, and expert interpretation systems.    As we reviewed H.R. 320, we had concerns with some of the definitions, the practical implementation of blind proficiency testing, and the protection of confidential information within the database. ASCLD and CFSO stand ready to aid in moving the legislation forward, once modified, for the universal adoption of this technology.    In closing, Mr. Chairman, we encourage the development of partnerships between law enforcement agencies, crime laboratories, and regulatory agencies for a careful and well thought out approach to the implementation to this promising technology. We believe that a methodical and measured approach to its deployment is vital to the criminal justice system in order to deliver the best forensic science possible.    Again, I thank the Committee for its time today, and I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Ms. Alexenko.</t>
   </si>
   <si>
-    <t>Alexenko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Alexenko. Thank you, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Committee. I cannot tell you how honored and humbled I am to be here today before you speaking and sharing my testimony. I'm here, of course, representing myself, but I also bring with me the strength and determination of so many survivors of sexual assault who are aware I am here speaking before you today, and we all ask the same thing, and that is please use our cases as a cautionary tale so that we can end this violence and to use anything that we can to make our country a safer place.    I'm a survivor of sexual assault. At 20 years old I was raped, robbed, and sodomized at gunpoint by an unknown assailant. It was devastating. Not only did it devastate me, but it changed my life forever. It affected my mother, the individuals that lived in my apartment building, my future friends. It basically completely altered the course of my life.    I submitted to a rape kit test, which is basically a very invasive gynecological exam. I knew that it was my duty as a citizen to aid law enforcement in any way that I could to put this perpetrator behind bars. Unbeknownst to me, my rape kit sat collecting dust for 9\\1/2\\ years, along with 17,000 other rape kits in New York City. And we know now this is just the tip of the iceberg, certainly a situation that's occurring throughout the Nation.    But what happened in the nearly 15 years before the man that raped and robbed me, Victor Rondon, was caught, when his profile was finally, after nearly 15 years, uploaded to CODIS and a match was made to the DNA in my rape kit, this man was a mobile serial predator. He committed a variety of crimes. He wasn't a specialist. He didn't stick to sexual assault. He was as burden on law enforcement, on human dignity, he was a burden on taxpayers, all because we did not catch him in time.    And essentially this story remains true for the same of all my other survivors that I know, and that is criminals are exploiting us in more ways than one, and serial predators move to avoid, using our time delay as a weakness. They are using our time delay to get away with things. Victor Rondon committed crimes in eight different States across this country and created a host of victims in his wake. He's currently behind bars, thanks to the dedication of law enforcement, and I'm proud to have been the complaining witness and testify against him. But I will let you know that after all those years, even 15 years later, the first time I saw Victor Rondon in all that time, I fainted at the sight of him, because to a survivor time has many meanings. It stands still in one way, and 30 days can seem like a very long time.    I feel like public safety should always take priority. I feel that we have a way to eliminate a lot of the crimes that are occurring. I feel, again, that if you don't take my tale as a cautionary tale, then it was all for nothing. It's so important for me to share my story. It's not easy. It's not easy to stand here and talk about the fact that I was raped, robbed, and sodomized, not a story that I enjoy telling, but if it helps take one perpetrator off the street, then it's certainly worth it.    Now, of course I'm not a law enforcement professional, I'm not a scientist, and I do not possess a law degree, and I cannot speak specifically to the language in this provision. But what I can tell you as a survivor is DNA testing is essential and that time matters. For nearly 15 years I was on a constant state of high alert knowing that this violent criminal was walking the streets. And I have to tell you that I faced a lot of guilt thinking that I didn't 100 percent do my part for the citizens of this country to find this perpetrator and put him way.    Today I'm here to talk about the other side of the DNA Database system and crucial new technologies that may reduce the amount of time needed to bring answers to victims of crime and safety to the citizens of this country. I hope that you will take this seriously. I have complete faith in the FBI, and I know that their testing methodology is stringent. We have to respect this technology. But it's important to implement methods that will no longer delay justice.    I thank you for your time, and, once again, I am very honored to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you for your very moving testimony.    We will now have questioning of the witnesses under the 5-minute rule. The Chair will withhold his questions to see if we have time at the end.    The gentleman from Virginia, Mr. Goodlatte, is recognized first.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. Thank you for holding this hearing and for introducing H.R. 320, the Rapid DNA Act. I'll submit my opening statement for the record as requested, but I do want the witnesses and the other participants in this hearing to know how important I think it is that we address this issue.</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    The gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    I want to begin by thanking my colleague, Sheila Jackson Lee, for having a moment of silence in connection with the tragedy that just occurred, and I'm grateful to her for that.    This is an amazing set of witnesses here. And I'm trying to determine after the few responses that have been given so far whether we're moving ahead or just merely providing options. And I think I'll start with Ms. Wolf.    What is your view, is this just something we've got to find out if it works better and is more efficient and we're at a preliminary stage of development where we're not really sure yet?</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. I can get them in now if that's okay.</t>
@@ -766,11 +742,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -790,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -818,11 +790,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -842,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -870,11 +838,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -894,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -922,11 +886,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -946,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -974,11 +934,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -998,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1026,11 +982,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1050,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1078,11 +1030,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1102,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1130,11 +1078,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1154,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1182,11 +1126,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1206,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1232,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1258,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1284,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1310,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1336,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1362,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1388,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1414,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1440,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1466,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1492,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1520,11 +1438,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1544,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1570,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1596,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1622,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1648,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1674,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1700,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>48</v>
-      </c>
-      <c r="H38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1726,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1752,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1778,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1804,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1830,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1856,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1884,11 +1774,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1908,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1936,11 +1822,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1960,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1988,11 +1870,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2012,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2040,11 +1918,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2064,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>63</v>
-      </c>
-      <c r="G52" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2090,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2116,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2142,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2168,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2194,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2220,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2246,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2272,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2300,11 +2158,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2324,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2350,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2376,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2402,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2428,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2454,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2480,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2506,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2532,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2558,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2584,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2610,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2636,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
-      </c>
-      <c r="G74" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2662,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2688,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2716,11 +2542,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2740,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2766,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2792,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2818,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2844,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2870,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2896,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2922,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2948,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2974,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3000,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3026,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3052,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3078,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3104,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3130,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3156,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3182,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3208,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3234,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3260,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3286,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Sensenbrenner</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee will be in order. Without objection, the Chair will be authorized to declare recesses of the Subcommittee during votes in the House.    Because we're supposed to have votes in about 30 minutes, the Chair will forego his opening statement. We'll ask the other Members not to make opening statements so we can get to the witnesses, because Representative Jackson Lee has got a hard departure time at 11:30. And I think after the first votes we won't be able to get back until that.</t>
   </si>
   <si>
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman.</t>
   </si>
   <si>
@@ -85,24 +100,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hess</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hess. Thank you. Good morning, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of Subcommittee. Thank you for the opportunity to provide an update today on our efforts relating to rapid DNA and for your continued support of the men and women of the FBI.    Over the last three decades we've been developing our Combined DNA Index System, or CODIS program, in order to better assist Federal, state, local, and international forensic laboratories. As new DNA technologies have emerged, we have been vigilant in demanding they provide the quality and integrity expected of a nationwide law enforcement database, and must be implemented pursuant to the FBI's Quality Assurance Standards in accordance with the Federal DNA Identification Act of 1994.    One of the underlying concepts of CODIS was to create a database of the DNA profiles of convicted offenders and use it to identify suspects for crimes in which there are no suspects. But this tool, which was initially expected to benefit the investigation of sexual assault cases, has proven to have broader applications. States observed this firsthand and sought to expand coverage of their databases beyond convicted sexual offenders; first, to individuals convicted of other violent felonies, then to all felony offenders, and now to persons arrested for sexual offenses, or in many states persons arrested for any felony offense.    The FBI Laboratory works closely with the DNA and CODIS communities, as well as other stakeholders, such as laboratory accrediting bodies, law enforcement, defense attorneys, and prosecutors, to evaluate new technologies and procedures. Any efforts to enhance CODIS involve significant consultation with the affected stakeholders, software development, testing, evaluation, implementation planning, and user training.    Today CODIS is installed in approximately 200 forensic DNA laboratories nationwide. The FBI provides the CODIS software to laboratories which are accredited, which follow the FBI's Quality Assurance Standards, that are audited annually, and that agree to comply with the Federal DNA Act for participation in the National DNA Index System, or NDIS.    To date, CODIS has generated over 285,000 investigative leads for law enforcement. All 50 States, Puerto Rico, the U.S. Army's Criminal Investigation Laboratory, and the FBI contribute DNA records to and participate in NDIS, which contains almost 14 million offender or arrestee DNA records and over 630,000 forensic or crime scene DNA records.    The FBI uses the term ``Rapid DNA analysis or technology'' to describe the fully automated, hands-free process of developing a CODIS Core Short Tandem Repeater, or STR, profile from a reference sample buccal swab. The process consists of automated extraction, amplification, separation, detection, and allele calling without human intervention. Our objective is to generate a CODIS-compatible DNA profile and to search these profiles within 2 hours against unsolved crime profiles while an arrestee is in police custody.    Rapid DNA technology has been designed for use within and outside the forensic DNA laboratory, as the instruments are self-contained machines which require no human intervention beyond the loading of the DNA samples and analysis cartridges.    With legislative authority, the FBI envisions Rapid DNA integration occurring in two phase. Phase one involves the booking station CODIS enrollment and searching of Rapid DNA profiles, which will eliminate the weeks to months it currently takes for arrestee samples to be mailed, received, inventoried, and analyzed for registration in the CODIS system. Phase two is the hit notification to booking stations and investigative agencies, which is expected to conserve valuable investigative resources and identify perpetrators before they are released back into their communities at the completion of the normal booking process.    Since 2008 we've partnered with the Departments of Defense and Homeland Security in the development of point-of-collection DNA analysis for the production of CODIS DNA profiles within a 2-hour period. In addition, the Scientific Working Group on DNA Analysis Methods empaneled a Rapid DNA Committee to evaluate whether additional quality measures were needed for records produced by Rapid DNA instruments. Based on their recommendations, the FBI issued an addendum to our Quality Assurance Standards to provide a foundation for the implementation of Rapid DNA within accredited forensic DNA laboratories.    The Federal DNA Act currently requires that DNA records maintained at NDIS be generated by accredited laboratories in compliance with the FBI's Quality Assurance Standards. But Rapid DNA technology has been designed for use by law enforcement agencies at the point of booking. Thus, statutory authorization for the use of FBI-approved Rapid DNA instruments by criminal justice agencies would be needed before the DNA records generated at police booking stations can be searched at     In addition to the legislative, validation, testing, evaluation, standards, and software issues, we must address issues relating to NDIS approval and certification of the instruments, as well as training of law enforcement personnel. These issues must be resolved prior to implementation so this new technology is used in a manner which maintains the quality, integrity, and sterling reputation of our database.    In conclusion, CODIS has demonstrated its value as an investigative tool for 25 years, and we are committed to maintaining its effectiveness. The FBI is also committed to identifying new technologies which could enhance the CODIS program, and we are pursuing Rapid DNA technology because we believe the efficiencies obtained from the real-time analysis of an arrestee's DNA sample has tremendous potential to improve public safety and focus law enforcement investigative resources.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Ms. Wolf.</t>
   </si>
   <si>
+    <t>Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wolf. Good morning, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Committee. My name is Jody Wolf, and I am the president of the American Society of Crime Laboratory Directors. On behalf of the 600 laboratory directors represented by ASCLD and over 15,000 crime laboratory practitioners represented by the Consortium of Forensic Science Organizations, I would like to thank you for the opportunity to discuss the topic of Rapid DNA technology and provide comments on House Resolution 320, the Rapid DNA Act of 2015.    The introduction of Rapid DNA technology has been an exciting one for the forensic science community. Several of our members helped with the initial technology development, and several more are currently participating in pilot programs to evaluate how best to implement this novel technology within the criminal justice system.    Rapid DNA is designed to deliver a DNA profile from samples such as known reference standards within a few hours, and is most commonly associated with the placement in law enforcement booking stations for the analysis of arrestee samples and entry into CODIS. The potential of this technology is promising, and both ASCLD and CFSO support the continued development of this novel application.    As I stated earlier, several of our members are currently participating in pilot programs and validation studies to develop best practices for the widespread deployment of these systems. Overviews of these programs and studies are provided in the written testimony offered to this Committee. As policymakers anticipate the implementation of this technology, it is critical the following issues are considered.    First, rigorous validations performed by crime laboratory scientists and researchers are critical to demonstrating the efficacy of this technology and not marketing materials. Currently, these devices are best suited for use with single-source, high-quantity biological samples such as reference standards of blood or saliva from known individuals, thus limiting its usefulness for complex crime scene samples of more than one person.    These instruments also currently can't analyze trace amounts of DNA. Consequently, these instruments are not designed for the routine testing of evidence types found in rape kits and will not help with the reduction of rape kit backlogs.    Secondly, this technology must be compliant with current industry standards and guidelines as provided by the FBI and the Scientific Working Group on DNA Analysis Methods, thus ensuring its operability with the CODIS database. SWGDAM and the FBI Quality Assurance Standards for Forensic DNA Testing Laboratories have provided best practices and standards for almost 20 years. ASCLD looks to these groups for guidance with Rapid DNA technologies, and we encourage vendors to seek full compliance with these standards or any new standards or guidelines developed by this group.    Third, ASCLD recommends that a careful cost-benefit analysis be performed prior to its widespread implementation. The purchase price for most Rapid DNA devices currently exceed $200,000, and the estimated per sample cost is $250. By comparison, FORESIGHT, a national study of crime laboratory operational costs, led by the West Virginia University, reported the median cost is less than $85 per sample using traditional laboratory methods for the DNA analysis of a database or known reference standard.    Clearly, the current costs of traditional DNA databasing is significantly less than using the Rapid DNA technology. As a result, funding levels for existing grant programs aimed at increasing analytical capacity for crime laboratories and reducing backlogs will need to be increased to allow crime laboratories and their stakeholders the opportunity to best meet the needs of their jurisdictions for DNA analysis.    Finally, and perhaps most importantly for crime laboratories and practitioners, is the technology transfer from the vendors to operational facilities. While the FBIis currently working on supporting the IT infrastructure necessary for its implementation in booking stations, it is important that other measures are also taken to validate this technology in the community.    ASCLD has been at the forefront of these activities and presented three Rapid DNA webinars addressing these topics during the past year, including Rapid DNA presentations during its annual symposiums, and has charged its Forensic Research Committee with developing guidance and best practices for its membership.    ASCLD and CFSO support Rapid DNA legislation, with revision, in order to ensure the existing integrity and security of the National DNA Database system is maintained, to authorize the FBI as the Federal law enforcement agency tasked with oversight of CODIS and establishing forensic DNA Quality Assurance Standards, and include a definition of Rapid DNA analysis and instruments utilizing NDIS-approved analytical platforms, chemistries, and expert interpretation systems.    As we reviewed H.R. 320, we had concerns with some of the definitions, the practical implementation of blind proficiency testing, and the protection of confidential information within the database. ASCLD and CFSO stand ready to aid in moving the legislation forward, once modified, for the universal adoption of this technology.    In closing, Mr. Chairman, we encourage the development of partnerships between law enforcement agencies, crime laboratories, and regulatory agencies for a careful and well thought out approach to the implementation to this promising technology. We believe that a methodical and measured approach to its deployment is vital to the criminal justice system in order to deliver the best forensic science possible.    Again, I thank the Committee for its time today, and I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Ms. Alexenko.</t>
   </si>
   <si>
+    <t>Alexenko</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Alexenko. Thank you, Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Committee. I cannot tell you how honored and humbled I am to be here today before you speaking and sharing my testimony. I'm here, of course, representing myself, but I also bring with me the strength and determination of so many survivors of sexual assault who are aware I am here speaking before you today, and we all ask the same thing, and that is please use our cases as a cautionary tale so that we can end this violence and to use anything that we can to make our country a safer place.    I'm a survivor of sexual assault. At 20 years old I was raped, robbed, and sodomized at gunpoint by an unknown assailant. It was devastating. Not only did it devastate me, but it changed my life forever. It affected my mother, the individuals that lived in my apartment building, my future friends. It basically completely altered the course of my life.    I submitted to a rape kit test, which is basically a very invasive gynecological exam. I knew that it was my duty as a citizen to aid law enforcement in any way that I could to put this perpetrator behind bars. Unbeknownst to me, my rape kit sat collecting dust for 9\\1/2\\ years, along with 17,000 other rape kits in New York City. And we know now this is just the tip of the iceberg, certainly a situation that's occurring throughout the Nation.    But what happened in the nearly 15 years before the man that raped and robbed me, Victor Rondon, was caught, when his profile was finally, after nearly 15 years, uploaded to CODIS and a match was made to the DNA in my rape kit, this man was a mobile serial predator. He committed a variety of crimes. He wasn't a specialist. He didn't stick to sexual assault. He was as burden on law enforcement, on human dignity, he was a burden on taxpayers, all because we did not catch him in time.    And essentially this story remains true for the same of all my other survivors that I know, and that is criminals are exploiting us in more ways than one, and serial predators move to avoid, using our time delay as a weakness. They are using our time delay to get away with things. Victor Rondon committed crimes in eight different States across this country and created a host of victims in his wake. He's currently behind bars, thanks to the dedication of law enforcement, and I'm proud to have been the complaining witness and testify against him. But I will let you know that after all those years, even 15 years later, the first time I saw Victor Rondon in all that time, I fainted at the sight of him, because to a survivor time has many meanings. It stands still in one way, and 30 days can seem like a very long time.    I feel like public safety should always take priority. I feel that we have a way to eliminate a lot of the crimes that are occurring. I feel, again, that if you don't take my tale as a cautionary tale, then it was all for nothing. It's so important for me to share my story. It's not easy. It's not easy to stand here and talk about the fact that I was raped, robbed, and sodomized, not a story that I enjoy telling, but if it helps take one perpetrator off the street, then it's certainly worth it.    Now, of course I'm not a law enforcement professional, I'm not a scientist, and I do not possess a law degree, and I cannot speak specifically to the language in this provision. But what I can tell you as a survivor is DNA testing is essential and that time matters. For nearly 15 years I was on a constant state of high alert knowing that this violent criminal was walking the streets. And I have to tell you that I faced a lot of guilt thinking that I didn't 100 percent do my part for the citizens of this country to find this perpetrator and put him way.    Today I'm here to talk about the other side of the DNA Database system and crucial new technologies that may reduce the amount of time needed to bring answers to victims of crime and safety to the citizens of this country. I hope that you will take this seriously. I have complete faith in the FBI, and I know that their testing methodology is stringent. We have to respect this technology. But it's important to implement methods that will no longer delay justice.    I thank you for your time, and, once again, I am very honored to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you for your very moving testimony.    We will now have questioning of the witnesses under the 5-minute rule. The Chair will withhold his questions to see if we have time at the end.    The gentleman from Virginia, Mr. Goodlatte, is recognized first.</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. Thank you for holding this hearing and for introducing H.R. 320, the Rapid DNA Act. I'll submit my opening statement for the record as requested, but I do want the witnesses and the other participants in this hearing to know how important I think it is that we address this issue.</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    The gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    I want to begin by thanking my colleague, Sheila Jackson Lee, for having a moment of silence in connection with the tragedy that just occurred, and I'm grateful to her for that.    This is an amazing set of witnesses here. And I'm trying to determine after the few responses that have been given so far whether we're moving ahead or just merely providing options. And I think I'll start with Ms. Wolf.    What is your view, is this just something we've got to find out if it works better and is more efficient and we're at a preliminary stage of development where we're not really sure yet?</t>
   </si>
   <si>
@@ -185,6 +215,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Chabot. I can get them in now if that's okay.</t>
@@ -692,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,2357 +758,2750 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s">
+        <v>67</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>67</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>67</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G64" t="s">
+        <v>67</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G70" t="s">
+        <v>67</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
       <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>67</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95120.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Sensenbrenner</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Jackson Lee</t>
   </si>
   <si>
@@ -215,6 +224,9 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Chabot</t>
@@ -728,7 +740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +748,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2747 +773,2944 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>121</v>
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
